--- a/out/cwe_with_epss_cvss.xlsx
+++ b/out/cwe_with_epss_cvss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,22 +456,32 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>OWAPS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>EPSS_Score</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>EPSS_Percentile</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Calc CVSS3.1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Calc CVSS4.0</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Calc OWAPS</t>
         </is>
       </c>
     </row>
@@ -498,21 +508,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>SL:4/M:3/O:3/S:4/ED:5/EE:4/A:3/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>0.006700000</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>0.803790000</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>8.800000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.625</v>
       </c>
     </row>
     <row r="3">
@@ -538,21 +556,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>SL:4/M:6/O:6/S:5/ED:3/EE:3/A:3/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>0.001830000</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>0.567240000</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>7.2</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>8.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="4">
@@ -578,21 +604,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>SL:3/M:5/O:3/S:5/ED:6/EE:4/A:5/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>0.000530000</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>0.224970000</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>7.2</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>8.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="5">
@@ -618,21 +652,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>SL:3/M:6/O:5/S:6/ED:6/EE:5/A:4/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>0.000420000</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>0.051050000</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>7.8</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>8.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.125</v>
       </c>
     </row>
     <row r="6">
@@ -658,21 +700,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>SL:4/M:5/O:5/S:5/ED:6/EE:4/A:4/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>0.000480000</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>0.194650000</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>6.5</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.625</v>
       </c>
     </row>
     <row r="7">
@@ -698,21 +748,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>SL:3/M:5/O:5/S:5/ED:3/EE:3/A:6/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>0.000850000</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>0.375550000</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>8.699999999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="8">
@@ -738,21 +796,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>SL:3/M:5/O:3/S:3/ED:4/EE:4/A:3/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>0.016170000</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>0.879720000</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>9.9</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>9.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="9">
@@ -778,21 +844,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>SL:5/M:6/O:3/S:5/ED:5/EE:3/A:6/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>0.001380000</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>0.507060000</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>9.199999999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="10">
@@ -818,21 +892,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>SL:5/M:4/O:5/S:5/ED:4/EE:4/A:4/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>0.004230000</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>0.749990000</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>8.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="11">
@@ -858,21 +940,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>SL:5/M:4/O:5/S:5/ED:4/EE:6/A:5/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>0.005470000</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>0.781040000</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>8.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -898,21 +988,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>SL:4/M:4/O:4/S:3/ED:5/EE:5/A:4/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>0.000430000</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>0.103770000</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>8.9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="13">
@@ -938,21 +1036,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>SL:3/M:6/O:5/S:3/ED:3/EE:4/A:3/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>0.000430000</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>0.103770000</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>7.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="14">
@@ -978,21 +1084,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>SL:6/M:6/O:6/S:5/ED:4/EE:3/A:4/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>0.000430000</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>0.103770000</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>8.699999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.75</v>
       </c>
     </row>
     <row r="15">
@@ -1018,21 +1132,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>SL:5/M:6/O:3/S:5/ED:5/EE:5/A:5/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>0.000430000</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>0.103770000</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>7.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.625</v>
       </c>
     </row>
     <row r="16">
@@ -1058,21 +1180,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>SL:6/M:5/O:4/S:3/ED:5/EE:5/A:3/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>0.000850000</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>0.375550000</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>8.699999999999999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="17">
@@ -1098,21 +1228,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>SL:5/M:3/O:3/S:5/ED:5/EE:6/A:5/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>0.001760000</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>0.558430000</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>8.699999999999999</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.625</v>
       </c>
     </row>
     <row r="18">
@@ -1138,21 +1276,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>SL:3/M:3/O:6/S:4/ED:6/EE:3/A:3/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>0.015380000</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>0.876160000</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>8.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.125</v>
       </c>
     </row>
     <row r="19">
@@ -1178,21 +1324,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>SL:5/M:5/O:5/S:3/ED:6/EE:6/A:4/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>0.006610000</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>0.802460000</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>9.199999999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1218,21 +1372,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>SL:5/M:4/O:5/S:3/ED:6/EE:5/A:4/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>0.006700000</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>0.803790000</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>8.800000000000001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.625</v>
       </c>
     </row>
     <row r="21">
@@ -1258,21 +1420,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>SL:6/M:5/O:3/S:4/ED:4/EE:4/A:4/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>0.007990000</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>0.822910000</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>8.699999999999999</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="22">
@@ -1298,21 +1468,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>SL:3/M:5/O:4/S:5/ED:5/EE:3/A:3/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>0.016170000</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>0.879720000</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>8.699999999999999</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1338,21 +1516,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>SL:4/M:6/O:5/S:5/ED:3/EE:4/A:6/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>0.000690000</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>0.320530000</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>5.3</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.625</v>
       </c>
     </row>
     <row r="24">
@@ -1378,21 +1564,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>SL:3/M:4/O:6/S:3/ED:4/EE:3/A:6/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>0.569950000</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>0.978020000</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>6.5</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>6.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1418,21 +1612,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>SL:4/M:3/O:3/S:5/ED:3/EE:3/A:5/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>0.001050000</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>0.443750000</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>6.1</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>6.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.875</v>
       </c>
     </row>
     <row r="26">
@@ -1458,21 +1660,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>SL:5/M:5/O:3/S:6/ED:3/EE:6/A:5/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>0.001470000</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>0.519820000</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>3.3</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>4.8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.875</v>
       </c>
     </row>
     <row r="27">
@@ -1498,21 +1708,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>SL:6/M:5/O:5/S:5/ED:5/EE:4/A:3/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>0.001040000</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>0.441910000</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>8.699999999999999</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.875</v>
       </c>
     </row>
     <row r="28">
@@ -1538,21 +1756,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>SL:4/M:3/O:4/S:5/ED:6/EE:5/A:3/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>0.001930000</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>0.580420000</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>8.4</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>9.300000000000001</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.125</v>
       </c>
     </row>
     <row r="29">
@@ -1578,21 +1804,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>SL:5/M:3/O:6/S:5/ED:5/EE:4/A:3/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>0.092340000</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>0.949120000</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>9.6</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>9.4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.625</v>
       </c>
     </row>
     <row r="30">
@@ -1618,21 +1852,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>SL:3/M:3/O:4/S:5/ED:4/EE:3/A:5/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>0.000460000</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>0.185770000</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>8.800000000000001</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.125</v>
       </c>
     </row>
     <row r="31">
@@ -1658,21 +1900,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>SL:3/M:3/O:5/S:6/ED:5/EE:3/A:3/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>0.029320000</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>0.911710000</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>9.8</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>9.300000000000001</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.875</v>
       </c>
     </row>
     <row r="32">
@@ -1698,21 +1948,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>SL:4/M:6/O:4/S:4/ED:4/EE:3/A:3/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>0.002220000</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>0.611870000</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>8.699999999999999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.125</v>
       </c>
     </row>
     <row r="33">
@@ -1738,21 +1996,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>SL:5/M:6/O:4/S:5/ED:4/EE:4/A:4/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>0.970320000</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>0.998070000</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>9.8</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>9.300000000000001</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.625</v>
       </c>
     </row>
     <row r="34">
@@ -1778,21 +2044,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>SL:4/M:6/O:6/S:3/ED:4/EE:6/A:5/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>0.000440000</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>0.141230000</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>7.8</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>8.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.625</v>
       </c>
     </row>
     <row r="35">
@@ -1818,21 +2092,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>SL:4/M:6/O:6/S:4/ED:5/EE:4/A:6/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>0.974980000</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>0.999860000</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>9.8</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>9.300000000000001</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.875</v>
       </c>
     </row>
     <row r="36">
@@ -1858,21 +2140,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>SL:3/M:5/O:4/S:5/ED:3/EE:4/A:4/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>0.000540000</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>0.243820000</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>3.8</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>5.1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.125</v>
       </c>
     </row>
     <row r="37">
@@ -1898,21 +2188,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>SL:6/M:3/O:3/S:4/ED:5/EE:3/A:5/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>0.015240000</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>0.875580000</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>8.699999999999999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4.125</v>
       </c>
     </row>
     <row r="38">
@@ -1938,21 +2236,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>SL:6/M:4/O:5/S:4/ED:4/EE:6/A:4/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>0.001750000</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>0.556700000</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>7.1</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>7.3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="39">
@@ -1978,21 +2284,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>SL:5/M:3/O:5/S:4/ED:5/EE:3/A:4/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>0.002600000</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>0.661320000</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>5.1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.125</v>
       </c>
     </row>
     <row r="40">
@@ -2018,21 +2332,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>SL:4/M:3/O:4/S:3/ED:5/EE:5/A:4/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>0.000430000</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>0.103770000</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>5.1</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>5.9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.875</v>
       </c>
     </row>
     <row r="41">
@@ -2058,21 +2380,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>SL:5/M:3/O:5/S:5/ED:3/EE:5/A:5/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>0.000750000</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>0.338960000</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>3.7</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>6.3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="42">
@@ -2098,21 +2428,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>SL:5/M:6/O:5/S:6/ED:4/EE:5/A:5/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>0.025360000</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>0.905480000</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>6.5</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>7.1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.875</v>
       </c>
     </row>
     <row r="43">
@@ -2138,21 +2476,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>SL:6/M:3/O:5/S:6/ED:4/EE:6/A:6/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>0.000440000</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>0.141230000</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>5.1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2178,21 +2524,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>SL:6/M:4/O:4/S:5/ED:3/EE:5/A:4/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>0.000420000</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>0.051050000</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>7.3</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>8.300000000000001</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.375</v>
       </c>
     </row>
     <row r="45">
@@ -2218,21 +2572,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>SL:5/M:4/O:5/S:6/ED:4/EE:6/A:4/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>0.000420000</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>0.051050000</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>5.5</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>6.8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.625</v>
       </c>
     </row>
     <row r="46">
@@ -2258,21 +2620,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>SL:6/M:4/O:6/S:5/ED:3/EE:6/A:4/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>0.000430000</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>0.112000000</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>6.0</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>6.8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.75</v>
       </c>
     </row>
     <row r="47">
@@ -2298,21 +2668,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>SL:6/M:5/O:4/S:6/ED:3/EE:5/A:4/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>0.002600000</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>0.661320000</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>5.1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.625</v>
       </c>
     </row>
     <row r="48">
@@ -2338,21 +2716,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>SL:3/M:5/O:6/S:5/ED:5/EE:6/A:6/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>0.001350000</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>0.502220000</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>8.699999999999999</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.875</v>
       </c>
     </row>
     <row r="49">
@@ -2378,21 +2764,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>SL:3/M:5/O:5/S:6/ED:6/EE:3/A:6/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>0.000660000</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>0.309750000</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>7.8</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>8.4</v>
+      </c>
+      <c r="J49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -2418,21 +2812,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>SL:6/M:4/O:6/S:3/ED:4/EE:4/A:6/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>0.002010000</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>0.588400000</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>9.8</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>9.300000000000001</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.625</v>
       </c>
     </row>
   </sheetData>

--- a/out/cwe_with_epss_cvss.xlsx
+++ b/out/cwe_with_epss_cvss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,30 +456,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>OWAPS</t>
+          <t>EPSS_Score</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>EPSS_Score</t>
+          <t>EPSS_Percentile</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>EPSS_Percentile</t>
+          <t>Calc CVSS3.1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Calc CVSS3.1</t>
+          <t>Calc CVSS4.0</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Calc CVSS4.0</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Calc OWAPS</t>
         </is>
@@ -508,29 +503,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SL:4/M:3/O:3/S:4/ED:5/EE:4/A:3/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.006700000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.006700000</t>
+          <t>0.803790000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.803790000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="H2" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.625</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -556,29 +548,26 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SL:4/M:6/O:6/S:5/ED:3/EE:3/A:3/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.001830000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.001830000</t>
+          <t>0.567240000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.567240000</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>7.2</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="H3" t="n">
         <v>8.6</v>
       </c>
-      <c r="J3" t="n">
-        <v>4.25</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>7.750</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -604,29 +593,26 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SL:3/M:5/O:3/S:5/ED:6/EE:4/A:5/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000530000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000530000</t>
+          <t>0.224970000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.224970000</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>7.2</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="H4" t="n">
         <v>8.6</v>
       </c>
-      <c r="J4" t="n">
-        <v>4.25</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5.875</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -652,29 +638,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SL:3/M:6/O:5/S:6/ED:6/EE:5/A:4/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000420000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000420000</t>
+          <t>0.051050000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.051050000</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>7.8</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="H5" t="n">
         <v>8.5</v>
       </c>
-      <c r="J5" t="n">
-        <v>5.125</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -700,29 +683,26 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SL:4/M:5/O:5/S:5/ED:6/EE:4/A:4/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000480000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.000480000</t>
+          <t>0.194650000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.194650000</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>6.5</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="H6" t="n">
         <v>7</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.625</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>7.250</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -748,29 +728,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SL:3/M:5/O:5/S:5/ED:3/EE:3/A:6/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000850000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.000850000</t>
+          <t>0.375550000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.375550000</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="H7" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.5</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -796,29 +773,26 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SL:3/M:5/O:3/S:3/ED:4/EE:4/A:3/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.016170000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.016170000</t>
+          <t>0.879720000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.879720000</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
           <t>9.9</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="H8" t="n">
         <v>9.4</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.5</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3.375</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -844,29 +818,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SL:5/M:6/O:3/S:5/ED:5/EE:3/A:6/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.001380000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.001380000</t>
+          <t>0.507060000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.507060000</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="H9" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="J9" t="n">
-        <v>4.5</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4.375</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -892,29 +863,26 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SL:5/M:4/O:5/S:5/ED:4/EE:4/A:4/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.004230000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.004230000</t>
+          <t>0.749990000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.749990000</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="H10" t="n">
         <v>8.6</v>
       </c>
-      <c r="J10" t="n">
-        <v>4.25</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>6.375</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -940,29 +908,26 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SL:5/M:4/O:5/S:5/ED:4/EE:6/A:5/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.005470000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.005470000</t>
+          <t>0.781040000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.781040000</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="H11" t="n">
         <v>8.6</v>
       </c>
-      <c r="J11" t="n">
-        <v>5</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>6.620</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -988,29 +953,26 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SL:4/M:4/O:4/S:3/ED:5/EE:5/A:4/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000430000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.000430000</t>
+          <t>0.103770000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.103770000</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="H12" t="n">
         <v>8.9</v>
       </c>
-      <c r="J12" t="n">
-        <v>4.25</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>7.125</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1036,29 +998,26 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SL:3/M:6/O:5/S:3/ED:3/EE:4/A:3/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000430000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.000430000</t>
+          <t>0.103770000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.103770000</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="H13" t="n">
         <v>7.5</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.75</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3.875</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1084,29 +1043,26 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SL:6/M:6/O:6/S:5/ED:4/EE:3/A:4/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000430000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.000430000</t>
+          <t>0.103770000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.103770000</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="H14" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.75</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>8.375</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1132,29 +1088,26 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SL:5/M:6/O:3/S:5/ED:5/EE:5/A:5/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000430000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.000430000</t>
+          <t>0.103770000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.103770000</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="H15" t="n">
         <v>7.5</v>
       </c>
-      <c r="J15" t="n">
-        <v>4.625</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>6.125</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1180,29 +1133,26 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SL:6/M:5/O:4/S:3/ED:5/EE:5/A:3/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000850000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.000850000</t>
+          <t>0.375550000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.375550000</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="H16" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J16" t="n">
-        <v>4.25</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>3.125</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1228,29 +1178,26 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SL:5/M:3/O:3/S:5/ED:5/EE:6/A:5/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.001760000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.001760000</t>
+          <t>0.558430000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.558430000</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="H17" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J17" t="n">
-        <v>4.625</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1276,29 +1223,26 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SL:3/M:3/O:6/S:4/ED:6/EE:3/A:3/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.015380000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.015380000</t>
+          <t>0.876160000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.876160000</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="H18" t="n">
         <v>8.6</v>
       </c>
-      <c r="J18" t="n">
-        <v>4.125</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>4.500</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1324,29 +1268,26 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SL:5/M:5/O:5/S:3/ED:6/EE:6/A:4/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.006610000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.006610000</t>
+          <t>0.802460000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.802460000</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="H19" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="J19" t="n">
-        <v>5</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>5.620</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1372,29 +1313,26 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SL:5/M:4/O:5/S:3/ED:6/EE:5/A:4/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.006700000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.006700000</t>
+          <t>0.803790000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.803790000</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="H20" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="J20" t="n">
-        <v>4.625</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>6.620</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1420,29 +1358,26 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SL:6/M:5/O:3/S:4/ED:4/EE:4/A:4/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.007990000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.007990000</t>
+          <t>0.822910000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.822910000</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="H21" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J21" t="n">
-        <v>4.25</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>7.620</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1468,29 +1403,26 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SL:3/M:5/O:4/S:5/ED:5/EE:3/A:3/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.016170000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.016170000</t>
+          <t>0.879720000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.879720000</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="H22" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J22" t="n">
-        <v>4</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>8.250</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1516,29 +1448,26 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SL:4/M:6/O:5/S:5/ED:3/EE:4/A:6/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000690000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.000690000</t>
+          <t>0.320530000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.320530000</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
           <t>5.3</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="H23" t="n">
         <v>6</v>
       </c>
-      <c r="J23" t="n">
-        <v>4.625</v>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>8.250</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1564,29 +1493,26 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SL:3/M:4/O:6/S:3/ED:4/EE:3/A:6/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.569950000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.569950000</t>
+          <t>0.978020000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.978020000</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
           <t>6.5</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="H24" t="n">
         <v>6.9</v>
       </c>
-      <c r="J24" t="n">
-        <v>4</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>9.125</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1612,29 +1538,26 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SL:4/M:3/O:3/S:5/ED:3/EE:3/A:5/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.001050000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.001050000</t>
+          <t>0.443750000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.443750000</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
           <t>6.1</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="H25" t="n">
         <v>6.8</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.875</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>7.125</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1660,29 +1583,26 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SL:5/M:5/O:3/S:6/ED:3/EE:6/A:5/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.001470000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.001470000</t>
+          <t>0.519820000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.519820000</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
           <t>3.3</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="H26" t="n">
         <v>4.8</v>
       </c>
-      <c r="J26" t="n">
-        <v>4.875</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>8.620</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1708,29 +1628,26 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SL:6/M:5/O:5/S:5/ED:5/EE:4/A:3/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.001040000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.001040000</t>
+          <t>0.441910000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.441910000</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="H27" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J27" t="n">
-        <v>4.875</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>7.500</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1756,29 +1673,26 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SL:4/M:3/O:4/S:5/ED:6/EE:5/A:3/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.001930000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.001930000</t>
+          <t>0.580420000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.580420000</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
           <t>8.4</t>
         </is>
       </c>
-      <c r="I28" t="n">
+      <c r="H28" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="J28" t="n">
-        <v>4.125</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>7.250</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1804,29 +1718,26 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SL:5/M:3/O:6/S:5/ED:5/EE:4/A:3/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.092340000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.092340000</t>
+          <t>0.949120000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.949120000</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
           <t>9.6</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="H29" t="n">
         <v>9.4</v>
       </c>
-      <c r="J29" t="n">
-        <v>4.625</v>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>8.375</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1852,29 +1763,26 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SL:3/M:3/O:4/S:5/ED:4/EE:3/A:5/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000460000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.000460000</t>
+          <t>0.185770000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.185770000</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="I30" t="n">
+      <c r="H30" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="J30" t="n">
-        <v>4.125</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>6.250</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1900,29 +1808,26 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SL:3/M:3/O:5/S:6/ED:5/EE:3/A:3/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.029320000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.029320000</t>
+          <t>0.911710000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.911710000</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
           <t>9.8</t>
         </is>
       </c>
-      <c r="I31" t="n">
+      <c r="H31" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="J31" t="n">
-        <v>3.875</v>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>6.250</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1948,29 +1853,26 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SL:4/M:6/O:4/S:4/ED:4/EE:3/A:3/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.002220000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.002220000</t>
+          <t>0.611870000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.611870000</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="I32" t="n">
+      <c r="H32" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J32" t="n">
-        <v>4.125</v>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>8.875</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1996,29 +1898,26 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SL:5/M:6/O:4/S:5/ED:4/EE:4/A:4/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.970320000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.970320000</t>
+          <t>0.998070000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.998070000</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
           <t>9.8</t>
         </is>
       </c>
-      <c r="I33" t="n">
+      <c r="H33" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="J33" t="n">
-        <v>4.625</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>4.375</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2044,29 +1943,26 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SL:4/M:6/O:6/S:3/ED:4/EE:6/A:5/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000440000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.000440000</t>
+          <t>0.141230000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.141230000</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
           <t>7.8</t>
         </is>
       </c>
-      <c r="I34" t="n">
+      <c r="H34" t="n">
         <v>8.5</v>
       </c>
-      <c r="J34" t="n">
-        <v>4.625</v>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>6.250</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2092,29 +1988,26 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SL:4/M:6/O:6/S:4/ED:5/EE:4/A:6/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.974980000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.974980000</t>
+          <t>0.999860000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.999860000</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
           <t>9.8</t>
         </is>
       </c>
-      <c r="I35" t="n">
+      <c r="H35" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="J35" t="n">
-        <v>4.875</v>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>8.500</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2140,29 +2033,26 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SL:3/M:5/O:4/S:5/ED:3/EE:4/A:4/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000540000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.000540000</t>
+          <t>0.243820000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.243820000</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
           <t>3.8</t>
         </is>
       </c>
-      <c r="I36" t="n">
+      <c r="H36" t="n">
         <v>5.1</v>
       </c>
-      <c r="J36" t="n">
-        <v>4.125</v>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>3.375</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2188,29 +2078,26 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SL:6/M:3/O:3/S:4/ED:5/EE:3/A:5/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.015240000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.015240000</t>
+          <t>0.875580000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.875580000</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="I37" t="n">
+      <c r="H37" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J37" t="n">
-        <v>4.125</v>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>7.375</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2236,29 +2123,26 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SL:6/M:4/O:5/S:4/ED:4/EE:6/A:4/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.001750000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.001750000</t>
+          <t>0.556700000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.556700000</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
           <t>7.1</t>
         </is>
       </c>
-      <c r="I38" t="n">
+      <c r="H38" t="n">
         <v>7.3</v>
       </c>
-      <c r="J38" t="n">
-        <v>4.5</v>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>4.125</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2284,29 +2168,26 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SL:5/M:3/O:5/S:4/ED:5/EE:3/A:4/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.002600000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.002600000</t>
+          <t>0.661320000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.661320000</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="I39" t="n">
+      <c r="H39" t="n">
         <v>5.1</v>
       </c>
-      <c r="J39" t="n">
-        <v>4.125</v>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>8.375</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2332,29 +2213,26 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SL:4/M:3/O:4/S:3/ED:5/EE:5/A:4/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000430000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.000430000</t>
+          <t>0.103770000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.103770000</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
           <t>5.1</t>
         </is>
       </c>
-      <c r="I40" t="n">
+      <c r="H40" t="n">
         <v>5.9</v>
       </c>
-      <c r="J40" t="n">
-        <v>3.875</v>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>6.500</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2380,29 +2258,26 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SL:5/M:3/O:5/S:5/ED:3/EE:5/A:5/ID:5/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000750000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.000750000</t>
+          <t>0.338960000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.338960000</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
           <t>3.7</t>
         </is>
       </c>
-      <c r="I41" t="n">
+      <c r="H41" t="n">
         <v>6.3</v>
       </c>
-      <c r="J41" t="n">
-        <v>4.5</v>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2428,29 +2303,26 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SL:5/M:6/O:5/S:6/ED:4/EE:5/A:5/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.025360000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.025360000</t>
+          <t>0.905480000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.905480000</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
           <t>6.5</t>
         </is>
       </c>
-      <c r="I42" t="n">
+      <c r="H42" t="n">
         <v>7.1</v>
       </c>
-      <c r="J42" t="n">
-        <v>4.875</v>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>8.250</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2476,29 +2348,26 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SL:6/M:3/O:5/S:6/ED:4/EE:6/A:6/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000440000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.000440000</t>
+          <t>0.141230000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.141230000</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="I43" t="n">
+      <c r="H43" t="n">
         <v>5.1</v>
       </c>
-      <c r="J43" t="n">
-        <v>5</v>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>6.500</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2524,29 +2393,26 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SL:6/M:4/O:4/S:5/ED:3/EE:5/A:4/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000420000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.000420000</t>
+          <t>0.051050000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.051050000</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
           <t>7.3</t>
         </is>
       </c>
-      <c r="I44" t="n">
+      <c r="H44" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="J44" t="n">
-        <v>4.375</v>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>7.750</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2572,29 +2438,26 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SL:5/M:4/O:5/S:6/ED:4/EE:6/A:4/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000420000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.000420000</t>
+          <t>0.051050000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.051050000</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
           <t>5.5</t>
         </is>
       </c>
-      <c r="I45" t="n">
+      <c r="H45" t="n">
         <v>6.8</v>
       </c>
-      <c r="J45" t="n">
-        <v>4.625</v>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>6.375</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2620,29 +2483,26 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SL:6/M:4/O:6/S:5/ED:3/EE:6/A:4/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000430000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.000430000</t>
+          <t>0.112000000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.112000000</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
           <t>6.0</t>
         </is>
       </c>
-      <c r="I46" t="n">
+      <c r="H46" t="n">
         <v>6.8</v>
       </c>
-      <c r="J46" t="n">
-        <v>4.75</v>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>9.250</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2668,29 +2528,26 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SL:6/M:5/O:4/S:6/ED:3/EE:5/A:4/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.002600000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.002600000</t>
+          <t>0.661320000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.661320000</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="I47" t="n">
+      <c r="H47" t="n">
         <v>5.1</v>
       </c>
-      <c r="J47" t="n">
-        <v>4.625</v>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2716,29 +2573,26 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SL:3/M:5/O:6/S:5/ED:5/EE:6/A:6/ID:3/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.001350000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.001350000</t>
+          <t>0.502220000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.502220000</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="I48" t="n">
+      <c r="H48" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J48" t="n">
-        <v>4.875</v>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>3.500</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2764,29 +2618,26 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SL:3/M:5/O:5/S:6/ED:6/EE:3/A:6/ID:6/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.000660000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.000660000</t>
+          <t>0.309750000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.309750000</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
           <t>7.8</t>
         </is>
       </c>
-      <c r="I49" t="n">
+      <c r="H49" t="n">
         <v>8.4</v>
       </c>
-      <c r="J49" t="n">
-        <v>5</v>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>6.875</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2812,29 +2663,26 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SL:6/M:4/O:6/S:3/ED:4/EE:4/A:6/ID:4/LC:0/LI:0/LAV:0/LAC:0/FD:0/RD:0/NC:0/PV:0</t>
+          <t>0.002010000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.002010000</t>
+          <t>0.588400000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.588400000</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
           <t>9.8</t>
         </is>
       </c>
-      <c r="I50" t="n">
+      <c r="H50" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="J50" t="n">
-        <v>4.625</v>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>8.875</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/out/cwe_with_epss_cvss.xlsx
+++ b/out/cwe_with_epss_cvss.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3.125</t>
+          <t>4.500</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6.620</t>
+          <t>5.250</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>8.875</t>
+          <t>4.125</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6.375</t>
+          <t>5.375</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>9.125</t>
+          <t>9.375</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6.750</t>
+          <t>3.875</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>4.620</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>7.620</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.375</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>6.125</t>
+          <t>3.250</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6.375</t>
+          <t>6.875</t>
         </is>
       </c>
     </row>

--- a/out/cwe_with_epss_cvss.xlsx
+++ b/out/cwe_with_epss_cvss.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4.500</t>
+          <t>7.125</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5.250</t>
+          <t>8.620</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4.125</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5.375</t>
+          <t>4.250</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>9.375</t>
+          <t>6.125</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.875</t>
+          <t>6.750</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4.620</t>
+          <t>9.500</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>9.250</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4.375</t>
+          <t>5.375</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.250</t>
+          <t>7.375</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6.875</t>
+          <t>6.620</t>
         </is>
       </c>
     </row>

--- a/out/cwe_with_epss_cvss.xlsx
+++ b/out/cwe_with_epss_cvss.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7.125</t>
+          <t>5.875</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>8.620</t>
+          <t>5.620</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4.250</t>
+          <t>9.375</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6.125</t>
+          <t>9.500</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6.750</t>
+          <t>4.620</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>9.500</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>9.250</t>
+          <t>6.250</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5.375</t>
+          <t>7.620</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6.620</t>
+          <t>8.125</t>
         </is>
       </c>
     </row>

--- a/out/cwe_with_epss_cvss.xlsx
+++ b/out/cwe_with_epss_cvss.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.142060000</t>
+          <t>0.142170000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6.500</t>
+          <t>8.875</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.660260000</t>
+          <t>0.660210000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9.875</t>
+          <t>3.875</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.899150000</t>
+          <t>0.899210000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>8.250</t>
+          <t>9.620</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.492070000</t>
+          <t>0.491920000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4.750</t>
+          <t>4.375</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.405570000</t>
+          <t>0.405380000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5.500</t>
+          <t>7.875</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.313880000</t>
+          <t>0.313650000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>7.375</t>
+          <t>6.750</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.407290000</t>
+          <t>0.407090000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.125</t>
+          <t>9.875</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.455200000</t>
+          <t>0.455160000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>5.125</t>
+          <t>8.620</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.456910000</t>
+          <t>0.456860000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>9.500</t>
+          <t>8.250</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.662350000</t>
+          <t>0.662290000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.375</t>
+          <t>7.500</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.411770000</t>
+          <t>0.411570000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>8.500</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.411770000</t>
+          <t>0.411570000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.455860000</t>
+          <t>0.455820000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.455200000</t>
+          <t>0.455160000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>9.750</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.806090000</t>
+          <t>0.806060000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>5.125</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.716420000</t>
+          <t>0.716360000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>9.875</t>
+          <t>4.875</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.455860000</t>
+          <t>0.455820000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3.750</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.729680000</t>
+          <t>0.729630000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4.125</t>
+          <t>5.375</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.050960000</t>
+          <t>0.050940000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3.125</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.176370000</t>
+          <t>0.176460000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>5.875</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.773730000</t>
+          <t>0.773700000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>5.500</t>
+          <t>4.500</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9.750</t>
+          <t>8.875</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.393510000</t>
+          <t>0.393310000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>5.125</t>
+          <t>3.500</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.192460000</t>
+          <t>0.192300000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>8.375</t>
+          <t>5.620</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.273500000</t>
+          <t>0.273440000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4.875</t>
+          <t>5.875</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.361380000</t>
+          <t>0.361220000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>8.875</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.216960000</t>
+          <t>0.216790000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>9.125</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.530260000</t>
+          <t>0.530250000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>5.500</t>
+          <t>4.875</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.023340000</t>
+          <t>0.022300000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.901300000</t>
+          <t>0.899200000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>9.125</t>
+          <t>4.375</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.360490000</t>
+          <t>0.360330000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>9.875</t>
+          <t>8.125</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.050960000</t>
+          <t>0.050940000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.500</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.284310000</t>
+          <t>0.284220000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>4.875</t>
+          <t>7.250</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.225380000</t>
+          <t>0.225150000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>6.375</t>
+          <t>8.125</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.050960000</t>
+          <t>0.050940000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>5.620</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.297090000</t>
+          <t>0.296950000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>6.750</t>
+          <t>7.375</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.781490000</t>
+          <t>0.781440000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>6.500</t>
         </is>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.050960000</t>
+          <t>0.050940000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>4.375</t>
+          <t>3.875</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.104250000</t>
+          <t>0.104360000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3.875</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.580630000</t>
+          <t>0.580620000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5.875</t>
+          <t>7.620</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.580630000</t>
+          <t>0.580620000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3.375</t>
+          <t>5.500</t>
         </is>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.558290000</t>
+          <t>0.558280000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>7.375</t>
         </is>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.717560000</t>
+          <t>0.717500000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4.750</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.383150000</t>
+          <t>0.382990000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>9.750</t>
+          <t>8.375</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.694000000</t>
+          <t>0.693980000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>6.750</t>
+          <t>9.250</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.142060000</t>
+          <t>0.142170000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>3.125</t>
+          <t>8.500</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.440340000</t>
+          <t>0.440250000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>5.500</t>
+          <t>4.620</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.118680000</t>
+          <t>0.118770000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3.750</t>
+          <t>7.375</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.233840000</t>
+          <t>0.233660000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4.250</t>
+          <t>6.875</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.050960000</t>
+          <t>0.050940000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.422530000</t>
+          <t>0.422470000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>4.375</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.440340000</t>
+          <t>0.440250000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>9.750</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.263280000</t>
+          <t>0.263230000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>4.875</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.363900000</t>
+          <t>0.363740000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.210150000</t>
+          <t>0.209930000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>5.875</t>
+          <t>8.250</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.460660000</t>
+          <t>0.460590000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>8.620</t>
+          <t>8.875</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.104250000</t>
+          <t>0.104360000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>3.750</t>
+          <t>5.125</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.305980000</t>
+          <t>0.305820000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>4.250</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.104250000</t>
+          <t>0.104360000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>9.500</t>
+          <t>9.250</t>
         </is>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.172690000</t>
+          <t>0.172780000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3.375</t>
+          <t>4.375</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.050960000</t>
+          <t>0.050940000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>4.750</t>
+          <t>9.125</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.104250000</t>
+          <t>0.104360000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>3.250</t>
+          <t>7.125</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.104250000</t>
+          <t>0.104360000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>3.620</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.552250000</t>
+          <t>0.552220000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>6.375</t>
+          <t>3.750</t>
         </is>
       </c>
     </row>

--- a/out/cwe_with_epss_cvss.xlsx
+++ b/out/cwe_with_epss_cvss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>Calc OWAPS</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Impact_Score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,17 +493,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CVE-2018-12131</t>
+          <t>CVE-2020-8731</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AV:L/AC:H/PR:L/UI:R/S:C/C:L/I:L/A:L</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:H/AT:P/PR:L/UI:A/VC:L/VI:L/VA:L/SC:L/SI:L/SA:L</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -508,21 +513,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.142170000</t>
+          <t>0.142620000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8.875</t>
-        </is>
+          <t>7.250</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="3">
@@ -533,41 +541,44 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CVE-2019-0804</t>
+          <t>CVE-2022-43309</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:C/C:L/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:N/I:H/A:H</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:L/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:N/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.002590000</t>
+          <t>0.000470000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.660210000</t>
+          <t>0.188750000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5.3</v>
+        <v>6.9</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.875</t>
-        </is>
+          <t>4.125</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -578,41 +589,44 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CVE-2018-12396</t>
+          <t>CVE-2022-37019</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:C/C:L/I:L/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:N/I:H/A:L</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:L/VI:L/VA:N/SC:L/SI:L/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:N/VI:H/VA:L/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.022310000</t>
+          <t>0.000430000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.899210000</t>
+          <t>0.104840000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9.620</t>
-        </is>
+          <t>5.375</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -623,41 +637,44 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CVE-2019-13682</t>
+          <t>CVE-2022-37020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:N/I:H/A:L</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:N/VI:H/VA:L/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.001290000</t>
+          <t>0.000430000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.491920000</t>
+          <t>0.104840000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4.375</t>
-        </is>
+          <t>4.750</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
@@ -668,41 +685,44 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CVE-2019-13681</t>
+          <t>CVE-2018-12131</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:L/A:N</t>
+          <t>AV:L/AC:H/PR:L/UI:R/S:C/C:L/I:L/A:L</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:H/AT:P/PR:L/UI:A/VC:L/VI:L/VA:L/SC:L/SI:L/SA:L</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.000910000</t>
+          <t>0.000440000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.405380000</t>
+          <t>0.142620000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7.875</t>
-        </is>
+          <t>6.875</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4879999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -713,41 +733,44 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CVE-2019-13679</t>
+          <t>CVE-2009-1073</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:N/UI:R/S:U/C:L/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:A/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:N/VA:N/SC:H/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.000670000</t>
+          <t>0.000420000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.313650000</t>
+          <t>0.051410000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6.750</t>
-        </is>
+          <t>8.125</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -758,41 +781,44 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CVE-2019-13677</t>
+          <t>CVE-2009-0115</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.000910000</t>
+          <t>0.000440000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.407090000</t>
+          <t>0.118650000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.9</v>
+        <v>9.4</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>9.875</t>
-        </is>
+          <t>5.750</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="9">
@@ -803,41 +829,44 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CVE-2019-13676</t>
+          <t>CVE-2009-0115</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:L/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.001090000</t>
+          <t>0.000440000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.455160000</t>
+          <t>0.118650000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>9.4</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>8.620</t>
-        </is>
+          <t>9.620</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="10">
@@ -848,41 +877,44 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CVE-2019-13668</t>
+          <t>CVE-2009-0115</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:C/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:H/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.001100000</t>
+          <t>0.000440000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.456860000</t>
+          <t>0.118650000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>8.250</t>
-        </is>
+          <t>5.875</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="11">
@@ -893,41 +925,44 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CVE-2019-13665</t>
+          <t>CVE-2011-4339</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:N/I:L/A:L</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:N/VI:L/VA:L/SC:N/SI:L/SA:L</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.002600000</t>
+          <t>0.000440000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.662290000</t>
+          <t>0.115650000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6.9</v>
+        <v>5.1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>7.500</t>
-        </is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3599999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -938,41 +973,44 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CVE-2019-13664</t>
+          <t>CVE-2011-4339</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:N/I:L/A:L</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:N/VI:L/VA:L/SC:N/SI:L/SA:L</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.000930000</t>
+          <t>0.000440000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.411570000</t>
+          <t>0.115650000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6.9</v>
+        <v>5.1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>8.0</t>
-        </is>
+          <t>9.875</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3599999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -983,41 +1021,44 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CVE-2019-13662</t>
+          <t>CVE-2009-0115</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.000930000</t>
+          <t>0.000440000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.411570000</t>
+          <t>0.118650000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6.9</v>
+        <v>9.4</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8.0</t>
-        </is>
+          <t>5.250</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="14">
@@ -1028,41 +1069,44 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CVE-2019-13683</t>
+          <t>CVE-2009-0115</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.001100000</t>
+          <t>0.000440000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.455820000</t>
+          <t>0.118650000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6.9</v>
+        <v>9.4</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4.125</t>
-        </is>
+          <t>4.875</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="15">
@@ -1073,32 +1117,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CVE-2019-13659</t>
+          <t>CVE-2011-4339</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:L/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:N/I:L/A:L</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:N/VI:L/VA:L/SC:N/SI:L/SA:L</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.001090000</t>
+          <t>0.000440000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.455160000</t>
+          <t>0.115650000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1106,8 +1150,11 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>9.750</t>
-        </is>
+          <t>8.375</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3599999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1118,41 +1165,44 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CVE-2019-13727</t>
+          <t>CVE-2011-4339</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:N/I:L/A:L</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:N/VI:L/VA:L/SC:N/SI:L/SA:L</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.006810000</t>
+          <t>0.000440000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.806060000</t>
+          <t>0.115650000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8.6</v>
+        <v>5.1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>5.0</t>
-        </is>
+          <t>4.250</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0.3599999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1163,41 +1213,44 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CVE-2019-13738</t>
+          <t>CVE-2009-0115</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.003270000</t>
+          <t>0.000440000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.716360000</t>
+          <t>0.118650000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6.9</v>
+        <v>9.4</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4.875</t>
-        </is>
+          <t>3.125</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="18">
@@ -1208,41 +1261,44 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CVE-2019-13697</t>
+          <t>CVE-2019-0073</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:N</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.001100000</t>
+          <t>0.000440000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.455820000</t>
+          <t>0.142620000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4.0</t>
-        </is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="19">
@@ -1253,41 +1309,44 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CVE-2019-11748</t>
+          <t>CVE-2020-1123</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:N/I:N/A:H</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:N/VI:N/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.003590000</t>
+          <t>0.000430000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.729630000</t>
+          <t>0.109570000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5.375</t>
-        </is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -1298,41 +1357,44 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CVE-2020-13696</t>
+          <t>CVE-2020-1084</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:L/I:L/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:N/I:N/A:H</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:N/VI:N/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.000420000</t>
+          <t>0.000430000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.050940000</t>
+          <t>0.109570000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>8.0</t>
-        </is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -1343,41 +1405,44 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CVE-2020-15708</t>
+          <t>CVE-2020-0951</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:H/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.000450000</t>
+          <t>0.000430000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.176460000</t>
+          <t>0.109570000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5.875</t>
-        </is>
+          <t>6.875</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="22">
@@ -1388,41 +1453,44 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CVE-2017-7821</t>
+          <t>CVE-2020-0805</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:L/I:L/A:L</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:L/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.005140000</t>
+          <t>0.000430000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.773700000</t>
+          <t>0.109570000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9.300000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.500</t>
-        </is>
+          <t>5.375</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0.4879999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1433,41 +1501,44 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CVE-2020-6562</t>
+          <t>CVE-2020-27658</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:C/C:N/I:L/A:N</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:C/C:L/I:L/A:N</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:N/VI:L/VA:N/SC:N/SI:L/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:L/VI:L/VA:N/SC:L/SI:L/SA:N</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.028910000</t>
+          <t>0.002580000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.911290000</t>
+          <t>0.659170000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6.9</v>
+        <v>5.1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8.875</t>
-        </is>
+          <t>6.750</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0.3599999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1478,41 +1549,44 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CVE-2020-26932</t>
+          <t>CVE-2017-13168</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:N/I:L/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.000880000</t>
+          <t>0.000620000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.393310000</t>
+          <t>0.283330000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5.3</v>
+        <v>8.5</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3.500</t>
-        </is>
+          <t>6.125</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="25">
@@ -1523,41 +1597,44 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CVE-2020-17490</t>
+          <t>CVE-2020-24394</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:N</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.000480000</t>
+          <t>0.000490000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.192300000</t>
+          <t>0.205670000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>5.620</t>
-        </is>
+          <t>5.125</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="26">
@@ -1568,41 +1645,44 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CVE-2021-33586</t>
+          <t>CVE-2021-36958</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:L/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.000600000</t>
+          <t>0.013310000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.273440000</t>
+          <t>0.865620000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>5.875</t>
-        </is>
+          <t>3.500</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="27">
@@ -1613,41 +1693,44 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CVE-2018-7169</t>
+          <t>CVE-2021-38198</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:N/I:N/A:H</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:N/VI:N/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.000810000</t>
+          <t>0.000600000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.361220000</t>
+          <t>0.273150000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.0</t>
-        </is>
+          <t>5.125</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="28">
@@ -1658,41 +1741,44 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CVE-2014-10402</t>
+          <t>CVE-2022-36103</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:L</t>
+          <t>AV:N/AC:L/PR:H/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:L/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.000510000</t>
+          <t>0.002230000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.216790000</t>
+          <t>0.613930000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6.9</v>
+        <v>8.6</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>9.0</t>
-        </is>
+          <t>5.750</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="29">
@@ -1703,41 +1789,44 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CVE-2022-24769</t>
+          <t>CVE-2023-28960</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:L/I:L/A:L</t>
+          <t>AV:L/AC:L/PR:L/UI:R/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:L/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.001550000</t>
+          <t>0.000420000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.530250000</t>
+          <t>0.050910000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5.1</v>
+        <v>8.6</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>4.875</t>
         </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="30">
@@ -1748,41 +1837,44 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CVE-2018-13374</t>
+          <t>CVE-2022-22248</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:L/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.022300000</t>
+          <t>0.000420000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.899200000</t>
+          <t>0.050910000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>4.375</t>
-        </is>
+          <t>4.875</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="31">
@@ -1793,41 +1885,44 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CVE-2023-45364</t>
+          <t>CVE-2023-20234</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:H/UI:N/S:U/C:N/I:H/A:N</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.000800000</t>
+          <t>0.000420000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.360330000</t>
+          <t>0.050910000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>8.125</t>
-        </is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
@@ -1838,17 +1933,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CVE-2018-7408</t>
+          <t>CVE-2023-44201</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1858,21 +1953,24 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.050940000</t>
+          <t>0.050910000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8.5</v>
+        <v>5.1</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>6.500</t>
-        </is>
+          <t>3.250</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
@@ -1883,41 +1981,44 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CVE-2021-3631</t>
+          <t>CVE-2023-42924</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AV:L/AC:H/PR:L/UI:N/S:U/C:H/I:H/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:H/AT:P/PR:L/UI:N/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.000630000</t>
+          <t>0.000520000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.284220000</t>
+          <t>0.222000000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>7.250</t>
-        </is>
+          <t>6.750</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
@@ -1928,41 +2029,44 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CVE-2023-45369</t>
+          <t>CVE-2024-20456</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:L/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:H/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.000530000</t>
+          <t>0.000430000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.225150000</t>
+          <t>0.104840000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>8.125</t>
-        </is>
+          <t>3.620</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="35">
@@ -1973,41 +2077,44 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CVE-2023-38497</t>
+          <t>CVE-2024-40865</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:N</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.000420000</t>
+          <t>0.000460000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.050940000</t>
+          <t>0.186780000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>6.0</t>
-        </is>
+          <t>6.500</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="36">
@@ -2018,32 +2125,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CVE-2023-5077</t>
+          <t>CVE-2019-18422</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:N/I:H/A:N</t>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.000640000</t>
+          <t>0.010160000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.296950000</t>
+          <t>0.843800000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2051,8 +2158,11 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>7.375</t>
-        </is>
+          <t>5.750</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="37">
@@ -2063,41 +2173,44 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CVE-2019-15752</t>
+          <t>CVE-2021-34758</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AV:N/AC:H/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:N/I:L/A:L</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:H/AT:P/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:N/VI:L/VA:L/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.005480000</t>
+          <t>0.000420000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.781440000</t>
+          <t>0.050910000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>7.5</v>
+        <v>4.8</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>6.500</t>
-        </is>
+          <t>3.620</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0.3599999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -2108,41 +2221,44 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CVE-2019-5543</t>
+          <t>CVE-2019-0804</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:L/UI:N/S:C/C:L/I:N/A:N</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:L/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.000420000</t>
+          <t>0.002590000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.050940000</t>
+          <t>0.660350000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8.5</v>
+        <v>5.3</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3.875</t>
-        </is>
+          <t>6.375</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="39">
@@ -2153,41 +2269,44 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CVE-2024-27108</t>
+          <t>CVE-2018-12396</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AV:P/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:C/C:L/I:L/A:N</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:P/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:L/VI:L/VA:N/SC:L/SI:L/SA:N</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.000430000</t>
+          <t>0.022310000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.104360000</t>
+          <t>0.898990000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>5.0</t>
-        </is>
+          <t>4.125</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0.3599999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -2198,41 +2317,44 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CVE-2019-1376</t>
+          <t>CVE-2019-13682</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.001930000</t>
+          <t>0.001290000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.580620000</t>
+          <t>0.492180000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>7.620</t>
-        </is>
+          <t>4.500</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="41">
@@ -2243,41 +2365,44 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CVE-2019-1313</t>
+          <t>CVE-2019-13681</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:L/A:N</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.001930000</t>
+          <t>0.000910000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.580620000</t>
+          <t>0.405600000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>7.1</v>
+        <v>5.1</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5.500</t>
-        </is>
+          <t>8.875</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="42">
@@ -2288,41 +2413,44 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CVE-2020-1056</t>
+          <t>CVE-2019-13679</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:R/S:U/C:L/I:N/A:N</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:A/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.001760000</t>
+          <t>0.000670000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.558280000</t>
+          <t>0.314000000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>8.5</v>
+        <v>4.6</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>7.375</t>
-        </is>
+          <t>6.125</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="43">
@@ -2333,41 +2461,44 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CVE-2021-32101</t>
+          <t>CVE-2019-13677</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:L/A:N</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.003290000</t>
+          <t>0.000910000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.717500000</t>
+          <t>0.407300000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>8.800000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>9.0</t>
-        </is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="44">
@@ -2378,41 +2509,44 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CVE-2021-25318</t>
+          <t>CVE-2019-13676</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:L/A:N</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.000870000</t>
+          <t>0.001090000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.382990000</t>
+          <t>0.455460000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8.699999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>8.375</t>
-        </is>
+          <t>4.250</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="45">
@@ -2423,41 +2557,44 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CVE-2019-8071</t>
+          <t>CVE-2019-13668</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:C/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:H/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.002830000</t>
+          <t>0.001100000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.693980000</t>
+          <t>0.457160000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>9.250</t>
         </is>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="46">
@@ -2468,41 +2605,44 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CVE-2020-0563</t>
+          <t>CVE-2019-13665</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.000440000</t>
+          <t>0.002600000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.142170000</t>
+          <t>0.662430000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>8.500</t>
-        </is>
+          <t>8.620</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="47">
@@ -2513,41 +2653,44 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CVE-2021-22149</t>
+          <t>CVE-2019-13664</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.001040000</t>
+          <t>0.000930000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.440250000</t>
+          <t>0.411790000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>8.699999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4.620</t>
-        </is>
+          <t>4.250</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="48">
@@ -2558,41 +2701,44 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CVE-2021-38483</t>
+          <t>CVE-2019-13662</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:H/UI:N/S:U/C:N/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:N/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.000440000</t>
+          <t>0.000930000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.118770000</t>
+          <t>0.411790000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>6.0</t>
         </is>
       </c>
-      <c r="H48" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>7.375</t>
-        </is>
+      <c r="J48" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
@@ -2603,41 +2749,44 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CVE-2022-21475</t>
+          <t>CVE-2019-13683</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AV:N/AC:H/PR:L/UI:R/S:U/C:L/I:H/A:L</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:H/AT:P/PR:L/UI:A/VC:L/VI:H/VA:L/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.000540000</t>
+          <t>0.001100000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.233660000</t>
+          <t>0.456120000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>6.875</t>
-        </is>
+          <t>8.750</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="50">
@@ -2648,41 +2797,44 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CVE-2022-31465</t>
+          <t>CVE-2019-13659</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:L/A:N</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.000420000</t>
+          <t>0.001090000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.050940000</t>
+          <t>0.455460000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>8.5</v>
+        <v>5.1</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>8.375</t>
-        </is>
+          <t>6.375</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="51">
@@ -2693,41 +2845,44 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CVE-2021-22716</t>
+          <t>CVE-2019-13727</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.000980000</t>
+          <t>0.006000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.422470000</t>
+          <t>0.791090000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>8.0</t>
-        </is>
+          <t>8.500</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="52">
@@ -2738,41 +2893,44 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CVE-2022-43773</t>
+          <t>CVE-2019-13738</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.001040000</t>
+          <t>0.002880000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.440250000</t>
+          <t>0.696550000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>8.699999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>9.750</t>
-        </is>
+          <t>6.250</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="53">
@@ -2783,27 +2941,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CVE-2023-30512</t>
+          <t>CVE-2019-13697</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.000580000</t>
+          <t>0.001100000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.263230000</t>
+          <t>0.456120000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2812,12 +2970,15 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>4.875</t>
-        </is>
+          <t>5.500</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="54">
@@ -2828,41 +2989,44 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CVE-2023-25817</t>
+          <t>CVE-2019-11748</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:N/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:N/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.000810000</t>
+          <t>0.003590000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.363740000</t>
+          <t>0.729740000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>7.125</t>
-        </is>
+          <t>3.620</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="55">
@@ -2873,41 +3037,44 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CVE-2023-47564</t>
+          <t>CVE-2020-13696</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:L/I:L/A:N</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.000500000</t>
+          <t>0.000420000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.209930000</t>
+          <t>0.050910000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>8.5</v>
+        <v>4.8</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>8.250</t>
-        </is>
+          <t>8.500</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>0.3599999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -2918,41 +3085,44 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CVE-2023-50292</t>
+          <t>CVE-2020-15708</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.001120000</t>
+          <t>0.000450000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.460590000</t>
+          <t>0.176970000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>8.875</t>
-        </is>
+          <t>3.250</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="57">
@@ -2963,41 +3133,44 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CVE-2024-30208</t>
+          <t>CVE-2017-7821</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:C/C:L/I:L/A:L</t>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:L/SC:L/SI:L/SA:L</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.000430000</t>
+          <t>0.005140000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.104360000</t>
+          <t>0.773780000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>4.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>5.125</t>
-        </is>
+          <t>7.125</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="58">
@@ -3008,41 +3181,44 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CVE-2023-7261</t>
+          <t>CVE-2020-6562</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:H/I:L/A:L</t>
+          <t>AV:N/AC:L/PR:N/UI:N/S:C/C:N/I:L/A:N</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:N/VI:L/VA:N/SC:N/SI:L/SA:N</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.000650000</t>
+          <t>0.028910000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.305820000</t>
+          <t>0.911090000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>6.0</t>
-        </is>
+          <t>5.875</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="59">
@@ -3053,41 +3229,44 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CVE-2024-33499</t>
+          <t>CVE-2020-26932</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:H/UI:N/S:C/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:N/I:L/A:N</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.000430000</t>
+          <t>0.000880000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.104360000</t>
+          <t>0.393570000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>9.4</v>
+        <v>5.3</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>9.250</t>
-        </is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="60">
@@ -3098,41 +3277,44 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CVE-2024-2905</t>
+          <t>CVE-2020-17490</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.000450000</t>
+          <t>0.000480000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.172780000</t>
+          <t>0.192700000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>4.375</t>
-        </is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="61">
@@ -3143,41 +3325,44 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CVE-2023-6179</t>
+          <t>CVE-2021-33586</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:L/I:N/A:N</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.000420000</t>
+          <t>0.000600000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.050940000</t>
+          <t>0.273780000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>8.5</v>
+        <v>5.3</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>9.125</t>
-        </is>
+          <t>4.620</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="62">
@@ -3188,41 +3373,44 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CVE-2024-24910</t>
+          <t>CVE-2018-7169</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:N</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.000430000</t>
+          <t>0.000810000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.104360000</t>
+          <t>0.361490000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>7.125</t>
-        </is>
+          <t>7.875</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="63">
@@ -3233,41 +3421,44 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CVE-2023-23767</t>
+          <t>CVE-2014-10402</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:H/UI:N/S:C/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:L</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:L/SC:N/SI:N/SA:N</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.000430000</t>
+          <t>0.000510000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.104360000</t>
+          <t>0.217060000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>9.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>3.620</t>
-        </is>
+          <t>4.875</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="64">
@@ -3278,41 +3469,3548 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>CVE-2022-24769</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:L/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:L/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.001550000</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.530470000</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>5.750</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>0.4879999999999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CVE-2018-13374</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:L/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.022300000</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.898980000</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>8.620</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CVE-2023-45364</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.000800000</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.360590000</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>8.250</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CVE-2018-7408</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.000420000</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.050910000</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>8.125</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CVE-2021-3631</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>AV:L/AC:H/PR:L/UI:N/S:U/C:H/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:H/AT:P/PR:L/UI:N/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0.000630000</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.284630000</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>5.250</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CVE-2023-45369</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:L/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0.000530000</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.225460000</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>3.375</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CVE-2023-38497</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.000420000</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.050910000</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>6.620</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CVE-2023-5077</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:N/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.000640000</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.297340000</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CVE-2019-14824</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.002460000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.650900000</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>3.250</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CVE-2022-23132</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0.001550000</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.529540000</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>4.375</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>0.4879999999999999</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CVE-2023-32723</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.001450000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.517290000</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>3.875</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CVE-2023-32724</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0.000890000</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.394410000</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>4.875</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CVE-2019-6465</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0.000690000</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.318780000</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>8.375</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CVE-2021-32056</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:N/I:N/A:L</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:N/VI:N/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.001130000</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.462890000</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CVE-2023-0225</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:N/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:N/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0.002790000</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.691280000</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>3.620</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>0.3599999999999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CVE-2019-15752</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>AV:N/AC:H/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:H/AT:P/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0.005480000</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.781520000</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>3.620</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CVE-2024-29187</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0.000450000</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.173290000</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>8.875</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CVE-2019-5543</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0.000420000</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.050910000</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>3.250</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CVE-2023-31238</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>AV:N/AC:H/PR:N/UI:N/S:U/C:L/I:L/A:N</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:H/AT:P/PR:N/UI:N/VC:L/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0.000830000</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.368830000</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>8.875</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>0.3599999999999999</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CVE-2023-38557</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:H/UI:N/S:C/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0.000420000</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.050910000</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>3.875</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CVE-2024-27108</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>AV:P/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:P/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.000430000</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.104840000</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CVE-2021-43065</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0.000480000</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.193830000</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>4.125</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CVE-2023-22326</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:H/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:H/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.000650000</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.301320000</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>8.875</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CVE-2019-1376</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.001930000</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.580850000</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>6.875</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CVE-2019-1313</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.001930000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.580850000</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>4.500</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CVE-2020-1056</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0.001760000</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.558430000</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CVE-2021-32101</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:L/A:N</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0.003290000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.717620000</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>4.250</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CVE-2021-25318</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0.000870000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.383260000</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>5.375</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CVE-2019-8071</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0.002830000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.694080000</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>7.125</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>CVE-2020-0563</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.000440000</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.142620000</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>9.500</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CVE-2021-22149</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0.001040000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.440480000</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>3.620</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>CVE-2021-38483</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:H/UI:N/S:U/C:N/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:N/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.000440000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.119240000</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>8.125</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CVE-2022-21475</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>AV:N/AC:H/PR:L/UI:R/S:U/C:L/I:H/A:L</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:H/AT:P/PR:L/UI:A/VC:L/VI:H/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0.000540000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.233970000</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>7.750</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CVE-2022-31465</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0.000420000</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.050910000</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>4.875</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CVE-2021-22716</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0.000980000</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.422720000</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>9.875</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>CVE-2022-43773</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0.001040000</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.440480000</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>CVE-2023-30512</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0.000580000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.263590000</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>5.875</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>CVE-2023-25817</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:N/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:N/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0.000810000</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.364010000</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>3.500</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CVE-2023-47564</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.000500000</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.210270000</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>6.250</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CVE-2023-50292</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0.001120000</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.460880000</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>CVE-2024-30208</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:C/C:L/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:L/SC:L/SI:L/SA:L</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.000430000</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.104840000</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>5.125</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>0.4879999999999999</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CVE-2023-7261</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:H/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.000650000</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.306200000</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>8.125</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>CVE-2024-33499</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:H/UI:N/S:C/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.000430000</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.104840000</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>CVE-2024-2905</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0.000450000</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.173290000</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>8.125</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>CVE-2023-6179</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.000420000</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.050910000</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>3.875</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CVE-2022-23448</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.000440000</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.142620000</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>7.620</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>CVE-2022-23448</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.000440000</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.142620000</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>7.250</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>CVE-2023-30897</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0.000420000</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.050910000</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>3.375</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>CVE-2023-3322</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>AV:L/AC:H/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:H/AT:P/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0.000640000</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.293560000</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>5.375</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>CVE-2023-38640</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:L/I:L/A:H</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.000420000</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.050910000</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>7.750</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>CVE-2022-44725</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.000440000</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.142620000</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>CVE-2021-28645</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.000450000</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.176970000</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>9.250</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>CVE-2021-28646</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:N/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0.000420000</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.050910000</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>3.250</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>CVE-2023-28133</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:L/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0.000540000</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.234630000</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>9.125</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>0.4879999999999999</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>CVE-2023-28134</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.000450000</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.176970000</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>CVE-2024-24910</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0.000430000</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.104840000</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>CVE-2018-1711</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.000420000</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.050910000</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>8.875</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>CVE-2020-4414</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:L</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0.000420000</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.050910000</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>3.250</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>0.3599999999999999</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>CVE-2023-33990</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0.000430000</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.104840000</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>CVE-2021-23055</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0.000650000</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.301320000</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>5.125</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>CVE-2022-2185</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:C/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0.455190000</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.975460000</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>7.750</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>CVE-2023-31454</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0.002270000</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.616600000</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>3.875</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>CVE-2023-2478</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:C/C:H/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:N/SC:H/SI:H/SA:N</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0.001040000</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.440550000</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>3.500</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CVE-2024-5915</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0.000430000</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.104840000</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>7.375</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>CVE-2020-10642</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0.000420000</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.003370000</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>CVE-2023-23767</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:H/UI:N/S:C/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0.000430000</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.104840000</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>8.500</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>CVE-2017-3166</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0.000420000</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.050910000</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>5.620</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>CVE-2022-42972</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0.000450000</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.176970000</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>9.375</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>CVE-2022-39062</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0.000430000</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.104840000</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>8.750</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>0.4879999999999999</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
           <t>CVE-2023-46141</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>0.001710000</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0.552220000</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.552390000</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
         <is>
           <t>9.8</t>
         </is>
       </c>
-      <c r="H64" t="n">
+      <c r="H133" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>3.750</t>
-        </is>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>4.750</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>CVE-2023-1135</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0.000510000</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.215000000</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>7.875</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>CVE-2024-22016</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0.000420000</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.052030000</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>3.620</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>CVE-2024-37369</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0.000430000</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.104840000</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>9.250</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>CVE-2023-0757</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0.001710000</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.552390000</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>8.875</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/out/cwe_with_epss_cvss.xlsx
+++ b/out/cwe_with_epss_cvss.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.142620000</t>
+          <t>0.142870000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>3.620</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -561,7 +561,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.188750000</t>
+          <t>0.188990000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4.125</t>
+          <t>6.250</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.104840000</t>
+          <t>0.105110000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5.375</t>
+          <t>6.620</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -657,7 +657,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.104840000</t>
+          <t>0.105110000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4.750</t>
+          <t>4.875</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -705,7 +705,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.142620000</t>
+          <t>0.142870000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6.875</t>
+          <t>4.375</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -753,7 +753,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.051410000</t>
+          <t>0.051380000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>8.125</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -801,7 +801,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.118650000</t>
+          <t>0.118910000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>5.750</t>
+          <t>3.125</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -849,7 +849,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.118650000</t>
+          <t>0.118910000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>9.620</t>
+          <t>5.620</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -897,7 +897,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.118650000</t>
+          <t>0.118910000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5.875</t>
+          <t>9.620</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.115650000</t>
+          <t>0.115920000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>7.125</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -993,7 +993,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.115650000</t>
+          <t>0.115920000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>9.875</t>
+          <t>5.250</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.118650000</t>
+          <t>0.118910000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5.250</t>
+          <t>8.125</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.118650000</t>
+          <t>0.118910000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4.875</t>
+          <t>9.875</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.115650000</t>
+          <t>0.115920000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>8.375</t>
+          <t>3.620</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.115650000</t>
+          <t>0.115920000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.250</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.118650000</t>
+          <t>0.118910000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.125</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.142620000</t>
+          <t>0.142870000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.109570000</t>
+          <t>0.109840000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>7.125</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.109570000</t>
+          <t>0.109840000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.500</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.109570000</t>
+          <t>0.109840000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6.875</t>
+          <t>3.125</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.109570000</t>
+          <t>0.109840000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>5.375</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.659170000</t>
+          <t>0.659250000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>6.750</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.283330000</t>
+          <t>0.283530000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>6.125</t>
+          <t>8.375</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.205670000</t>
+          <t>0.205910000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>5.125</t>
+          <t>8.500</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.865620000</t>
+          <t>0.865670000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.273150000</t>
+          <t>0.273370000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>5.125</t>
+          <t>9.250</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.613930000</t>
+          <t>0.614040000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>5.750</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4.875</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>4.875</t>
+          <t>5.125</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.875</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>3.250</t>
+          <t>6.375</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.222000000</t>
+          <t>0.222220000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>6.750</t>
+          <t>3.500</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.104840000</t>
+          <t>0.105110000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3.620</t>
+          <t>6.875</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.186780000</t>
+          <t>0.187030000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>6.500</t>
+          <t>7.375</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.843800000</t>
+          <t>0.843860000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>5.750</t>
+          <t>9.750</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3.620</t>
+          <t>6.500</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.660350000</t>
+          <t>0.660440000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>6.375</t>
+          <t>6.620</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.898990000</t>
+          <t>0.899010000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>4.125</t>
+          <t>7.620</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.492180000</t>
+          <t>0.492290000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>4.500</t>
+          <t>7.375</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.405600000</t>
+          <t>0.405730000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>8.875</t>
+          <t>5.125</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.314000000</t>
+          <t>0.314210000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.407300000</t>
+          <t>0.407440000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>8.620</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.455460000</t>
+          <t>0.455580000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4.250</t>
+          <t>5.620</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.457160000</t>
+          <t>0.457260000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>9.250</t>
+          <t>4.500</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.662430000</t>
+          <t>0.662520000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>8.620</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.411790000</t>
+          <t>0.411930000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4.250</t>
+          <t>3.500</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.411790000</t>
+          <t>0.411930000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6.250</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.456120000</t>
+          <t>0.456230000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>8.750</t>
+          <t>6.125</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.455460000</t>
+          <t>0.455580000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>6.375</t>
+          <t>7.875</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.791090000</t>
+          <t>0.791170000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>8.500</t>
+          <t>3.875</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.696550000</t>
+          <t>0.696600000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>4.750</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.456120000</t>
+          <t>0.456230000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>5.500</t>
+          <t>9.375</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.729740000</t>
+          <t>0.729800000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>3.620</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>8.500</t>
+          <t>7.875</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.176970000</t>
+          <t>0.177250000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3.250</t>
+          <t>6.500</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.773780000</t>
+          <t>0.773800000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>7.125</t>
+          <t>7.500</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.911090000</t>
+          <t>0.911170000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>5.875</t>
+          <t>9.375</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.393570000</t>
+          <t>0.393690000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>6.500</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.192700000</t>
+          <t>0.192930000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>9.125</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.273780000</t>
+          <t>0.274000000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>4.620</t>
+          <t>7.375</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.361490000</t>
+          <t>0.361580000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>7.875</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.217060000</t>
+          <t>0.217280000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>4.875</t>
+          <t>7.875</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.530470000</t>
+          <t>0.530590000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>5.750</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.898980000</t>
+          <t>0.899010000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>8.620</t>
+          <t>6.500</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.360590000</t>
+          <t>0.360680000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>8.250</t>
+          <t>7.875</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>8.125</t>
+          <t>8.375</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.284630000</t>
+          <t>0.284820000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>5.250</t>
+          <t>5.750</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.225460000</t>
+          <t>0.225690000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>3.375</t>
+          <t>9.875</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>6.620</t>
+          <t>7.250</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.297340000</t>
+          <t>0.297530000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>8.250</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.650900000</t>
+          <t>0.651010000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>3.250</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.529540000</t>
+          <t>0.529660000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>4.375</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.517290000</t>
+          <t>0.517380000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>3.875</t>
+          <t>6.375</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.394410000</t>
+          <t>0.394540000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>4.875</t>
+          <t>5.620</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.318780000</t>
+          <t>0.318990000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4078,7 +4078,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>8.375</t>
+          <t>9.125</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.462890000</t>
+          <t>0.462970000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.750</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.691280000</t>
+          <t>0.691340000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>3.620</t>
+          <t>3.500</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.781520000</t>
+          <t>0.781560000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>3.620</t>
+          <t>8.250</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.173290000</t>
+          <t>0.173560000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>8.875</t>
+          <t>5.375</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>3.250</t>
+          <t>4.250</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.368830000</t>
+          <t>0.368900000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>3.875</t>
+          <t>9.250</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.104840000</t>
+          <t>0.105110000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>5.750</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.193830000</t>
+          <t>0.194060000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>4.125</t>
+          <t>7.375</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.301320000</t>
+          <t>0.301520000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>8.875</t>
+          <t>5.375</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.580850000</t>
+          <t>0.580980000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>6.875</t>
+          <t>5.250</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.580850000</t>
+          <t>0.580980000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>4.500</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.558430000</t>
+          <t>0.558560000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.717620000</t>
+          <t>0.717670000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>4.250</t>
+          <t>6.750</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.383260000</t>
+          <t>0.383380000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>5.375</t>
+          <t>3.375</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.694080000</t>
+          <t>0.694130000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>7.125</t>
+          <t>5.750</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0.142620000</t>
+          <t>0.142870000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4894,7 +4894,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>9.500</t>
+          <t>9.875</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.440480000</t>
+          <t>0.440610000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>3.620</t>
+          <t>8.375</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.119240000</t>
+          <t>0.119490000</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>8.125</t>
+          <t>5.250</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.233970000</t>
+          <t>0.234190000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>5.250</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>4.875</t>
+          <t>3.500</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.422720000</t>
+          <t>0.422820000</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>9.875</t>
+          <t>8.500</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0.440480000</t>
+          <t>0.440610000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.263590000</t>
+          <t>0.263790000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>5.875</t>
+          <t>4.500</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.364010000</t>
+          <t>0.364100000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>3.500</t>
+          <t>6.250</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0.210270000</t>
+          <t>0.210510000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J102" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0.460880000</t>
+          <t>0.460970000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>4.375</t>
         </is>
       </c>
       <c r="J103" t="n">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0.104840000</t>
+          <t>0.105110000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>5.125</t>
+          <t>9.375</t>
         </is>
       </c>
       <c r="J104" t="n">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0.306200000</t>
+          <t>0.306400000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>8.125</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="J105" t="n">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0.104840000</t>
+          <t>0.105110000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="J106" t="n">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0.173290000</t>
+          <t>0.173560000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>8.125</t>
+          <t>5.750</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>3.875</t>
+          <t>8.125</t>
         </is>
       </c>
       <c r="J108" t="n">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0.142620000</t>
+          <t>0.142870000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>7.620</t>
+          <t>4.875</t>
         </is>
       </c>
       <c r="J109" t="n">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0.142620000</t>
+          <t>0.142870000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>9.750</t>
         </is>
       </c>
       <c r="J110" t="n">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>3.375</t>
+          <t>5.375</t>
         </is>
       </c>
       <c r="J111" t="n">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0.293560000</t>
+          <t>0.293760000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>5.375</t>
+          <t>9.750</t>
         </is>
       </c>
       <c r="J112" t="n">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>8.620</t>
         </is>
       </c>
       <c r="J113" t="n">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0.142620000</t>
+          <t>0.142870000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J114" t="n">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0.176970000</t>
+          <t>0.177250000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>9.250</t>
+          <t>5.620</t>
         </is>
       </c>
       <c r="J115" t="n">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>3.250</t>
+          <t>9.750</t>
         </is>
       </c>
       <c r="J116" t="n">
@@ -6033,7 +6033,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0.234630000</t>
+          <t>0.234850000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>9.125</t>
+          <t>6.125</t>
         </is>
       </c>
       <c r="J117" t="n">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0.176970000</t>
+          <t>0.177250000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>3.875</t>
         </is>
       </c>
       <c r="J118" t="n">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0.104840000</t>
+          <t>0.105110000</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.620</t>
         </is>
       </c>
       <c r="J119" t="n">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>8.875</t>
+          <t>5.250</t>
         </is>
       </c>
       <c r="J120" t="n">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>3.250</t>
+          <t>8.250</t>
         </is>
       </c>
       <c r="J121" t="n">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0.104840000</t>
+          <t>0.105110000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.620</t>
         </is>
       </c>
       <c r="J122" t="n">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0.301320000</t>
+          <t>0.301520000</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>5.125</t>
+          <t>3.620</t>
         </is>
       </c>
       <c r="J123" t="n">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0.975460000</t>
+          <t>0.975470000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>8.250</t>
         </is>
       </c>
       <c r="J124" t="n">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0.616600000</t>
+          <t>0.616720000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>3.875</t>
+          <t>8.375</t>
         </is>
       </c>
       <c r="J125" t="n">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0.440550000</t>
+          <t>0.440680000</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -6478,7 +6478,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>3.500</t>
+          <t>3.250</t>
         </is>
       </c>
       <c r="J126" t="n">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0.104840000</t>
+          <t>0.105110000</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>7.375</t>
+          <t>4.620</t>
         </is>
       </c>
       <c r="J127" t="n">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.125</t>
         </is>
       </c>
       <c r="J128" t="n">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0.104840000</t>
+          <t>0.105110000</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0.050910000</t>
+          <t>0.050890000</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>5.620</t>
+          <t>3.125</t>
         </is>
       </c>
       <c r="J130" t="n">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0.176970000</t>
+          <t>0.177250000</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>9.375</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J131" t="n">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0.104840000</t>
+          <t>0.105110000</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>8.750</t>
+          <t>5.125</t>
         </is>
       </c>
       <c r="J132" t="n">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0.552390000</t>
+          <t>0.552510000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>4.750</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="J133" t="n">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0.215000000</t>
+          <t>0.215230000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>7.875</t>
+          <t>8.620</t>
         </is>
       </c>
       <c r="J134" t="n">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0.052030000</t>
+          <t>0.052010000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>3.620</t>
+          <t>8.375</t>
         </is>
       </c>
       <c r="J135" t="n">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0.104840000</t>
+          <t>0.105110000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>9.250</t>
+          <t>4.375</t>
         </is>
       </c>
       <c r="J136" t="n">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0.552390000</t>
+          <t>0.552510000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>8.875</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J137" t="n">
